--- a/__src__/__tmp__/tmp_output.xlsx
+++ b/__src__/__tmp__/tmp_output.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Plaza Vea Izaguirre</t>
   </si>
   <si>
     <t>Plaza Vea Los Olivos</t>
+  </si>
+  <si>
+    <t>Plaza Vea Universitaria</t>
   </si>
   <si>
     <t>Z408</t>
@@ -419,23 +422,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -443,10 +449,13 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -454,10 +463,13 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -465,10 +477,13 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -476,10 +491,13 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -487,10 +505,13 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -498,10 +519,13 @@
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -509,10 +533,13 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -520,10 +547,13 @@
       <c r="C9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -531,10 +561,13 @@
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -542,10 +575,13 @@
       <c r="C11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -553,10 +589,13 @@
       <c r="C12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -564,10 +603,13 @@
       <c r="C13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -575,15 +617,21 @@
       <c r="C14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>0</v>
       </c>
     </row>

--- a/__src__/__tmp__/tmp_output.xlsx
+++ b/__src__/__tmp__/tmp_output.xlsx
@@ -14,26 +14,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>Hipermercado Metro Independencia</t>
+  </si>
   <si>
     <t>Plaza Vea Izaguirre</t>
   </si>
   <si>
+    <t>Tottus Mega Plaza</t>
+  </si>
+  <si>
     <t>Plaza Vea Los Olivos</t>
   </si>
   <si>
-    <t>Plaza Vea Universitaria</t>
+    <t>Tottus Los Olivos</t>
+  </si>
+  <si>
+    <t>Makro Plaza Lima Norte</t>
+  </si>
+  <si>
+    <t>Makro Comas</t>
   </si>
   <si>
     <t>Z408</t>
   </si>
   <si>
+    <t>Z651</t>
+  </si>
+  <si>
     <t>Z407</t>
   </si>
   <si>
-    <t>Z651</t>
-  </si>
-  <si>
     <t>Z414</t>
   </si>
   <si>
@@ -52,13 +64,16 @@
     <t>Z417</t>
   </si>
   <si>
+    <t>Z423B</t>
+  </si>
+  <si>
     <t>Z411</t>
   </si>
   <si>
     <t>Z399</t>
   </si>
   <si>
-    <t>Z423</t>
+    <t>Z423A</t>
   </si>
   <si>
     <t>Z398</t>
@@ -422,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,83 +453,155 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -522,10 +609,22 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -536,38 +635,74 @@
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -578,13 +713,25 @@
       <c r="D11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -592,13 +739,25 @@
       <c r="D12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -606,10 +765,22 @@
       <c r="D13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -620,10 +791,22 @@
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -633,6 +816,44 @@
       </c>
       <c r="D15">
         <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
